--- a/pred_ohlcv/54_21/2020-01-21 PCM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 PCM ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-1266072.1341</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-1319697.3676</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-1319697.3676</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-1368830.625800001</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-1788830.625800001</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-1978958.302300001</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-2217701.0455</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-2207703.404402279</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-2832611.054332582</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-2832611.054332582</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-2832611.054332582</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-2994848.882194791</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-3000736.153256999</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-3053664.325156999</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-3175828.767556999</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-3211462.457957</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-3065169.868156999</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-3065036.736157503</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-3065036.736157503</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-3094117.330958006</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-3102394.275758006</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-3102394.275758006</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-3086349.226258005</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-3268111.314758006</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-3267355.647251708</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-3286940.735451709</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-3313344.630251708</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-3296297.121451708</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-3077432.492258006</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-3105921.653658006</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-3113768.515258006</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-2930234.644158006</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-3442052.831058006</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-3441991.831058006</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-3482085.246258006</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-3483355.246258006</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-3439203.747358006</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-3433875.415758006</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-3433875.415758006</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-3552767.628158006</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-3595041.987658006</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-3726502.132558006</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-3726502.132558006</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-21 PCM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 PCM ohlcv.xlsx
@@ -1978,7 +1978,7 @@
         <v>-3000736.153256999</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-3053664.325156999</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-3175828.767556999</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-3211462.457957</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-3065169.868156999</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-3065036.736157503</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-3065036.736157503</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-3102394.275758006</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-3102394.275758006</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-3313344.630251708</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-3296297.121451708</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-3199015.500458006</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-3605564.050158006</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-3605564.050158006</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-2930234.644158006</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-3442052.831058006</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-3441991.831058006</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-3482085.246258006</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-3483355.246258006</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-3439203.747358006</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-3433875.415758006</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-3433875.415758006</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-3552767.628158006</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-3595041.987658006</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-3726502.132558006</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-3726502.132558006</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
